--- a/biology/Histoire de la zoologie et de la botanique/Ferdinand_Le_Cerf/Ferdinand_Le_Cerf.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ferdinand_Le_Cerf/Ferdinand_Le_Cerf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ferdinand Le Cerf est un entomologiste français né à Paris 17e le 3 octobre 1881 et mort à Paris 13e le 2 janvier 1945[1], spécialisé dans les lépidoptères.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ferdinand Le Cerf est un entomologiste français né à Paris 17e le 3 octobre 1881 et mort à Paris 13e le 2 janvier 1945, spécialisé dans les lépidoptères.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a travaillé au laboratoire d'entomologie du Muséum national d'histoire naturelle.
 A participé au premier Congrès international pour la protection de la nature, faune et flore, sites et monuments naturels qui a eu lieu à Paris du 31 mai au 2 juin 1923. Avec Raoul de Clermont, Albert Chappellier, Louis de Nussac et Charles Valois, il en a rédigé les rapports (1926).
@@ -543,13 +557,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Atlas des Lépidoptères de France: Rhapalocères: Volume 1
 Atlas des lépidoptères de France: Hétérocères
 Atlas des lépidoptères de France, Partie 3
 Atlas des lépidoptères de France, Suisse, Belgique, Italie du Nord: 2, Hétérocères
-Lepidoptera recueil d'études biologiques et systématiques sur les Lépidoptères du globe[2].</t>
+Lepidoptera recueil d'études biologiques et systématiques sur les Lépidoptères du globe.</t>
         </is>
       </c>
     </row>
